--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\EU\EU-EPS\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738849F8-3EF3-4804-8F67-3336470FA6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6302CF9-0769-4A1D-90BE-C861693DED3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="1065" yWindow="0" windowWidth="14865" windowHeight="15630" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ETS Electricity Technology Shareweights</t>
   </si>
@@ -184,10 +184,7 @@
     <t>electricity demand for purposes of this variable.  (In this unusual case, no new plants are being</t>
   </si>
   <si>
-    <t>We assign zero values to hydro, crude oil and fuel oil, as these plants to not have a pathway</t>
-  </si>
-  <si>
-    <t>to deployment in the US.</t>
+    <t xml:space="preserve">EU values are set to zero for new crude oil, fuel oil. There are some small scale hydro plants under construction, so this value was set to 1. Most (18 of 27) EU countries have committed to phasing out coal and could consider setting coal value to zero when all countries have committed to phase out all coal. </t>
   </si>
 </sst>
 </file>
@@ -577,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,11 +663,6 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +682,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,97 +1087,97 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\EU\EU-EPS\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\China\Models\eps-china-ifs\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6302CF9-0769-4A1D-90BE-C861693DED3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B992DCA-DBCF-4C16-A792-F949B1C13874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="0" windowWidth="14865" windowHeight="15630" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ETS Electricity Technology Shareweights</t>
   </si>
@@ -184,7 +184,10 @@
     <t>electricity demand for purposes of this variable.  (In this unusual case, no new plants are being</t>
   </si>
   <si>
-    <t xml:space="preserve">EU values are set to zero for new crude oil, fuel oil. There are some small scale hydro plants under construction, so this value was set to 1. Most (18 of 27) EU countries have committed to phasing out coal and could consider setting coal value to zero when all countries have committed to phase out all coal. </t>
+    <t>We assign zero values to hydro, crude oil and fuel oil, as these plants to not have a pathway</t>
+  </si>
+  <si>
+    <t>to deployment in the US.</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +666,11 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,97 +1095,97 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1185,97 +1193,97 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1283,97 +1291,97 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1381,97 +1389,97 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1577,97 +1585,97 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1969,97 +1977,97 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\China\Models\eps-china-ifs\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B992DCA-DBCF-4C16-A792-F949B1C13874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,21 +576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -597,84 +598,84 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{2705635C-9EE8-4C02-9AF9-24B17956AB3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -682,22 +683,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6985D34C-6EF7-4849-ACAF-BBEB94FFD830}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:AF13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -795,105 +796,105 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1187,105 +1188,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="T6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="V6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="W6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Y6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AA6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AE6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AF6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1873,203 +1874,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="U14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="X14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Y14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Z14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AA14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AB14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AC14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AE14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AF14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\China\Models\eps-china-ifs\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B992DCA-DBCF-4C16-A792-F949B1C13874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,21 +575,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,84 +597,84 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{2705635C-9EE8-4C02-9AF9-24B17956AB3A}"/>
+    <hyperlink ref="A8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -683,22 +682,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6985D34C-6EF7-4849-ACAF-BBEB94FFD830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -796,105 +795,105 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -992,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1188,105 +1187,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="N6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AE6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AF6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1874,203 +1873,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="X14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Z14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AA14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AB14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AC14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AE14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AF14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CA3800-5A2B-4C7A-8CED-01AD04BCD2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,21 +576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -597,84 +598,84 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -682,22 +683,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:AF13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -795,7 +796,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -893,7 +894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1187,203 +1188,203 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="G6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="H6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="O6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="P6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="Q6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="R6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="S6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="T6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="U6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="V6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="W6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="X6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="Y6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="Z6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AA6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AB6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AC6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AD6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AE6">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AF6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE7">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1971,105 +1972,105 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
